--- a/administrator/templates/templates/dmkh.xlsx
+++ b/administrator/templates/templates/dmkh.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="360" yWindow="90" windowWidth="14355" windowHeight="4680"/>
@@ -11,12 +11,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Mã khách hàng(ma_kh)</t>
   </si>
@@ -34,6 +34,12 @@
   </si>
   <si>
     <t>Email(email)</t>
+  </si>
+  <si>
+    <t>Nhóm khách hàng(group_name)</t>
+  </si>
+  <si>
+    <t>Phụ trách(phu_trach)</t>
   </si>
 </sst>
 </file>
@@ -44,7 +50,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <charset val="163"/>
       <scheme val="minor"/>
@@ -384,23 +390,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="25.140625" customWidth="1"/>
-    <col min="2" max="2" width="41.7109375" customWidth="1"/>
-    <col min="3" max="3" width="33.28515625" customWidth="1"/>
-    <col min="4" max="4" width="23.85546875" customWidth="1"/>
-    <col min="5" max="5" width="22.42578125" customWidth="1"/>
-    <col min="6" max="6" width="22.85546875" customWidth="1"/>
+    <col min="1" max="1" width="25.125" customWidth="1"/>
+    <col min="2" max="2" width="41.75" customWidth="1"/>
+    <col min="3" max="3" width="33.25" customWidth="1"/>
+    <col min="4" max="4" width="13.125" customWidth="1"/>
+    <col min="5" max="5" width="14" customWidth="1"/>
+    <col min="6" max="6" width="13.125" customWidth="1"/>
+    <col min="7" max="7" width="18.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="27.75" customHeight="1">
+    <row r="1" spans="1:8" ht="27.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -419,13 +426,19 @@
       <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:8" ht="15">
       <c r="D2" s="2"/>
       <c r="E2" s="3"/>
       <c r="F2" s="2"/>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:8" ht="15">
       <c r="D3" s="2"/>
       <c r="E3" s="3"/>
       <c r="F3" s="2"/>
@@ -442,7 +455,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -454,7 +467,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
